--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-24T15:56:43+00:00</t>
+    <t>2022-11-25T11:36:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:36:47+00:00</t>
+    <t>2022-11-25T11:53:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:53:22+00:00</t>
+    <t>2022-11-25T11:57:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T11:57:58+00:00</t>
+    <t>2022-11-26T17:48:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-26T17:48:47+00:00</t>
+    <t>2022-11-28T10:19:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T10:19:29+00:00</t>
+    <t>2022-11-28T11:36:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:36:40+00:00</t>
+    <t>2022-11-28T11:42:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T11:42:39+00:00</t>
+    <t>2022-11-28T13:17:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:17:59+00:00</t>
+    <t>2022-11-28T13:54:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:54:36+00:00</t>
+    <t>2022-11-28T14:10:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:10:20+00:00</t>
+    <t>2022-11-29T11:19:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/vulcan-eproduct-info/ValueSet/packageMaterial</t>
+    <t>http://hl7.org/fhir/uv/emedicinal-product-info/ValueSet/packageMaterial</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:19:39+00:00</t>
+    <t>2022-12-01T10:11:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-Ballot</t>
+    <t>1.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T10:11:45+00:00</t>
+    <t>2022-12-02T14:16:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T14:16:24+00:00</t>
+    <t>2022-12-09T15:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T15:04:58+00:00</t>
+    <t>2022-12-14T14:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T14:15:20+00:00</t>
+    <t>2022-12-14T18:14:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-14T18:14:38+00:00</t>
+    <t>2022-12-16T11:20:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:20:12+00:00</t>
+    <t>2022-12-16T11:59:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-16T11:59:44+00:00</t>
+    <t>2022-12-17T10:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T10:20:03+00:00</t>
+    <t>2022-12-17T12:06:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:06:32+00:00</t>
+    <t>2022-12-17T12:26:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-17T12:26:35+00:00</t>
+    <t>2022-12-19T17:15:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-19T17:15:26+00:00</t>
+    <t>2022-12-20T15:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-20T15:01:34+00:00</t>
+    <t>2022-12-21T15:08:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T15:08:00+00:00</t>
+    <t>2022-12-21T16:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-21T16:19:38+00:00</t>
+    <t>2022-12-22T16:01:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-22T16:01:13+00:00</t>
+    <t>2023-01-13T20:22:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T20:22:01+00:00</t>
+    <t>2023-01-14T01:22:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-14T01:22:25+00:00</t>
+    <t>2023-01-15T00:37:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-15T00:37:24+00:00</t>
+    <t>2023-01-20T18:45:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T18:45:44+00:00</t>
+    <t>2023-01-21T15:50:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T15:50:48+00:00</t>
+    <t>2023-02-28T21:05:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T21:05:48+00:00</t>
+    <t>2023-04-05T09:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T09:48:34+00:00</t>
+    <t>2023-04-05T12:01:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:01:25+00:00</t>
+    <t>2023-04-05T12:06:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T12:06:03+00:00</t>
+    <t>2023-04-05T13:49:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-05T13:49:45+00:00</t>
+    <t>2023-04-06T08:19:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-packageMaterial.xlsx
+++ b/ValueSet-packageMaterial.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-06T08:19:53+00:00</t>
+    <t>2023-04-06T10:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
